--- a/inputData/Orange_wRed_V1.xlsx
+++ b/inputData/Orange_wRed_V1.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmm-my.sharepoint.com/personal/majic_unm_edu/Documents/Disertacion Marzo 2020/Second Empirical Paper 2022/Analysis 2023/inputData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{4FBB70FD-8EBB-4F20-AE7D-61310DC2122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC8B0C1-8455-4E13-A5F6-E8574D3679EC}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{4FBB70FD-8EBB-4F20-AE7D-61310DC2122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3FBE6B5-C0C1-4B68-B798-91A42D002C80}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10400" yWindow="2850" windowWidth="7500" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orange_Video_1_2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Orange_Video_1_2023!$A$1:$D$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Orange_Video_1_2023!$A$1:$D$224</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="34">
   <si>
     <t>Sync Time</t>
   </si>
@@ -117,11 +117,23 @@
   <si>
     <t>Index</t>
   </si>
+  <si>
+    <t>Red_1_14</t>
+  </si>
+  <si>
+    <t>Red_1_15</t>
+  </si>
+  <si>
+    <t>Red_1_16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm:ss.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +450,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -554,6 +572,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -599,10 +645,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -958,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:E282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J208" sqref="J208"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257:E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1516,16 +1566,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>3.8923611111111116E-3</v>
+        <v>3.9363425925925928E-3</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1533,16 +1583,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>3.9027777777777776E-3</v>
+        <v>4.0034722222222216E-3</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1550,16 +1600,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>4.0034722222222216E-3</v>
+        <v>4.0868055555555553E-3</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1567,16 +1617,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>4.0868055555555553E-3</v>
+        <v>4.1099537037037033E-3</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1584,16 +1634,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>4.1099537037037033E-3</v>
+        <v>4.1249999999999993E-3</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -1601,16 +1651,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>4.1249999999999993E-3</v>
+        <v>4.155092592592593E-3</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -1618,16 +1668,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>4.155092592592593E-3</v>
+        <v>4.168981481481481E-3</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -1635,16 +1685,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>4.168981481481481E-3</v>
+        <v>4.1805555555555554E-3</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -1652,16 +1702,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>4.1805555555555554E-3</v>
+        <v>4.1828703703703706E-3</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -1669,16 +1719,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>4.1828703703703706E-3</v>
+        <v>4.4606481481481476E-3</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -1686,16 +1736,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>4.4606481481481476E-3</v>
+        <v>4.4756944444444445E-3</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -1703,16 +1753,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>4.4756944444444445E-3</v>
+        <v>4.4907407407407405E-3</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -1720,16 +1770,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>4.4907407407407405E-3</v>
+        <v>4.4988425925925925E-3</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -1737,16 +1787,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>4.4988425925925925E-3</v>
+        <v>4.5509259259259261E-3</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1754,16 +1804,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>4.5509259259259261E-3</v>
+        <v>4.5949074074074078E-3</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -1771,13 +1821,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>4.5868055555555558E-3</v>
+        <v>4.6180555555555558E-3</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -1785,33 +1838,33 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>6.2743055555555564E-3</v>
+        <v>4.6307870370370366E-3</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>6.2858796296296282E-3</v>
+        <v>6.2743055555555564E-3</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -1819,16 +1872,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>6.82175925925926E-3</v>
+        <v>6.2858796296296282E-3</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>4</v>
@@ -1836,16 +1889,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>6.8275462962962968E-3</v>
+        <v>6.82175925925926E-3</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -1853,16 +1906,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>6.8645833333333336E-3</v>
+        <v>6.8275462962962968E-3</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -1870,16 +1923,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>6.8715277777777776E-3</v>
+        <v>6.8645833333333336E-3</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -1887,16 +1940,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>6.9259259259259257E-3</v>
+        <v>6.8715277777777776E-3</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -1904,16 +1957,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>6.9409722222222225E-3</v>
+        <v>6.9259259259259257E-3</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -1921,16 +1974,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>6.9490740740740737E-3</v>
+        <v>6.9409722222222225E-3</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -1938,7 +1991,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>6.9687500000000001E-3</v>
+        <v>6.9490740740740737E-3</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
@@ -1955,33 +2008,33 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>7.8599537037037041E-3</v>
+        <v>6.9687500000000001E-3</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>8.2546296296296291E-3</v>
+        <v>7.8599537037037041E-3</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -1989,16 +2042,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>8.37037037037037E-3</v>
+        <v>8.2546296296296291E-3</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -2006,16 +2059,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>8.3969907407407413E-3</v>
+        <v>8.37037037037037E-3</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
       </c>
       <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62">
         <v>10</v>
-      </c>
-      <c r="D62">
-        <v>9</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -2023,16 +2076,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>8.4351851851851862E-3</v>
+        <v>8.3969907407407413E-3</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -2040,16 +2093,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>8.4432870370370373E-3</v>
+        <v>8.4351851851851862E-3</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -2057,16 +2110,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>8.4583333333333333E-3</v>
+        <v>8.4432870370370373E-3</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E65">
         <v>5</v>
@@ -2074,16 +2127,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>8.4652777777777782E-3</v>
+        <v>8.4583333333333333E-3</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -2091,16 +2144,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>8.4722222222222213E-3</v>
+        <v>8.4652777777777782E-3</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -2108,16 +2161,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>8.5300925925925926E-3</v>
+        <v>8.4722222222222213E-3</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -2125,16 +2178,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>8.5416666666666679E-3</v>
+        <v>8.5300925925925926E-3</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -2142,16 +2195,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>8.5543981481481478E-3</v>
+        <v>8.5416666666666679E-3</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -2159,33 +2212,33 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>9.0532407407407419E-3</v>
+        <v>8.5543981481481478E-3</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>9.0543981481481482E-3</v>
+        <v>9.0532407407407419E-3</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>6</v>
@@ -2193,16 +2246,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>9.0717592592592586E-3</v>
+        <v>9.0543981481481482E-3</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>6</v>
@@ -2210,16 +2263,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>9.1759259259259259E-3</v>
+        <v>9.0717592592592586E-3</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>6</v>
@@ -2227,16 +2280,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>9.1793981481481483E-3</v>
+        <v>9.1759259259259259E-3</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -2244,16 +2297,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>9.1967592592592604E-3</v>
+        <v>9.1793981481481483E-3</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -2261,16 +2314,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>9.2071759259259259E-3</v>
+        <v>9.1967592592592604E-3</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>6</v>
@@ -2278,16 +2331,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>9.3402777777777772E-3</v>
+        <v>9.2071759259259259E-3</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>6</v>
@@ -2295,16 +2348,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>9.3518518518518525E-3</v>
+        <v>9.3402777777777772E-3</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -2312,16 +2365,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>9.3981481481481485E-3</v>
+        <v>9.3518518518518525E-3</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>6</v>
@@ -2329,16 +2382,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>9.4351851851851836E-3</v>
+        <v>9.3981481481481485E-3</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>6</v>
@@ -2346,16 +2399,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>9.4537037037037037E-3</v>
+        <v>9.4351851851851836E-3</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>6</v>
@@ -2363,16 +2416,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>9.6307870370370367E-3</v>
+        <v>9.4537037037037037E-3</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>6</v>
@@ -2380,16 +2433,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>9.6620370370370367E-3</v>
+        <v>9.6307870370370367E-3</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -2397,16 +2450,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>9.7465277777777776E-3</v>
+        <v>9.6620370370370367E-3</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>6</v>
@@ -2414,16 +2467,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>9.7476851851851856E-3</v>
+        <v>9.7465277777777776E-3</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>6</v>
@@ -2431,33 +2484,33 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>1.1137731481481483E-2</v>
+        <v>9.7476851851851856E-3</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>1.1189814814814814E-2</v>
+        <v>1.1137731481481483E-2</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>7</v>
@@ -2465,16 +2518,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>1.1195601851851852E-2</v>
+        <v>1.1189814814814814E-2</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>7</v>
@@ -2482,16 +2535,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>1.125347222222222E-2</v>
+        <v>1.1195601851851852E-2</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>7</v>
@@ -2499,16 +2552,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>1.1265046296296296E-2</v>
+        <v>1.125347222222222E-2</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>7</v>
@@ -2516,16 +2569,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>1.1274305555555557E-2</v>
+        <v>1.1265046296296296E-2</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>7</v>
@@ -2533,16 +2586,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>1.128587962962963E-2</v>
+        <v>1.1274305555555557E-2</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -2550,16 +2603,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>1.1302083333333332E-2</v>
+        <v>1.128587962962963E-2</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>7</v>
@@ -2567,16 +2620,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>1.1307870370370371E-2</v>
+        <v>1.1302083333333332E-2</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>7</v>
@@ -2584,16 +2637,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>1.1320601851851851E-2</v>
+        <v>1.1307870370370371E-2</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>7</v>
@@ -2601,16 +2654,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>1.1325231481481483E-2</v>
+        <v>1.1320601851851851E-2</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>7</v>
@@ -2618,16 +2671,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>1.1351851851851851E-2</v>
+        <v>1.1325231481481483E-2</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>7</v>
@@ -2635,16 +2688,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>1.1371527777777777E-2</v>
+        <v>1.1351851851851851E-2</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>7</v>
@@ -2652,16 +2705,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>1.1376157407407409E-2</v>
+        <v>1.1371527777777777E-2</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -2669,16 +2722,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>1.1417824074074073E-2</v>
+        <v>1.1376157407407409E-2</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -2686,16 +2739,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>1.1423611111111112E-2</v>
+        <v>1.1417824074074073E-2</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>7</v>
@@ -2703,16 +2756,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>1.1458333333333334E-2</v>
+        <v>1.1423611111111112E-2</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D103">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>7</v>
@@ -2720,16 +2773,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>1.153125E-2</v>
+        <v>1.1458333333333334E-2</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -2737,16 +2790,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>1.1568287037037038E-2</v>
+        <v>1.153125E-2</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>7</v>
@@ -2754,16 +2807,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>1.161226851851852E-2</v>
+        <v>1.1568287037037038E-2</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>7</v>
@@ -2771,16 +2824,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>1.1635416666666667E-2</v>
+        <v>1.161226851851852E-2</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>7</v>
@@ -2788,16 +2841,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>1.170486111111111E-2</v>
+        <v>1.1635416666666667E-2</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E108">
         <v>7</v>
@@ -2805,16 +2858,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>1.1728009259259257E-2</v>
+        <v>1.170486111111111E-2</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -2822,16 +2875,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>1.1756944444444445E-2</v>
+        <v>1.1728009259259257E-2</v>
       </c>
       <c r="B110" t="s">
         <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E110">
         <v>7</v>
@@ -2839,16 +2892,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>1.176273148148148E-2</v>
+        <v>1.1756944444444445E-2</v>
       </c>
       <c r="B111" t="s">
         <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>7</v>
@@ -2856,7 +2909,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>1.1832175925925927E-2</v>
+        <v>1.176273148148148E-2</v>
       </c>
       <c r="B112" t="s">
         <v>23</v>
@@ -2873,10 +2926,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>1.218287037037037E-2</v>
+        <v>1.1832175925925927E-2</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
         <v>17</v>
@@ -2885,21 +2938,21 @@
         <v>14</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>1.2285879629629631E-2</v>
+        <v>1.218287037037037E-2</v>
       </c>
       <c r="B114" t="s">
         <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E114">
         <v>8</v>
@@ -2907,16 +2960,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>1.2418981481481482E-2</v>
+        <v>1.2285879629629631E-2</v>
       </c>
       <c r="B115" t="s">
         <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D115">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>8</v>
@@ -2924,16 +2977,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>1.2459490740740741E-2</v>
+        <v>1.2418981481481482E-2</v>
       </c>
       <c r="B116" t="s">
         <v>24</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E116">
         <v>8</v>
@@ -2941,16 +2994,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>1.2467592592592593E-2</v>
+        <v>1.2459490740740741E-2</v>
       </c>
       <c r="B117" t="s">
         <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D117">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>8</v>
@@ -2958,16 +3011,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>1.2474537037037039E-2</v>
+        <v>1.2467592592592593E-2</v>
       </c>
       <c r="B118" t="s">
         <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E118">
         <v>8</v>
@@ -2975,16 +3028,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>1.2494212962962964E-2</v>
+        <v>1.2474537037037039E-2</v>
       </c>
       <c r="B119" t="s">
         <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D119">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>8</v>
@@ -2992,16 +3045,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>1.2505787037037037E-2</v>
+        <v>1.2494212962962964E-2</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E120">
         <v>8</v>
@@ -3009,16 +3062,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>1.283564814814815E-2</v>
+        <v>1.2505787037037037E-2</v>
       </c>
       <c r="B121" t="s">
         <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121">
         <v>8</v>
@@ -3026,16 +3079,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>1.2847222222222223E-2</v>
+        <v>1.283564814814815E-2</v>
       </c>
       <c r="B122" t="s">
         <v>24</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>8</v>
@@ -3043,7 +3096,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>1.2877314814814814E-2</v>
+        <v>1.2847222222222223E-2</v>
       </c>
       <c r="B123" t="s">
         <v>24</v>
@@ -3060,10 +3113,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>1.4348379629629628E-2</v>
+        <v>1.2877314814814814E-2</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -3072,21 +3125,21 @@
         <v>2</v>
       </c>
       <c r="E124">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>1.435300925925926E-2</v>
+        <v>1.4348379629629628E-2</v>
       </c>
       <c r="B125" t="s">
         <v>25</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>9</v>
@@ -3094,16 +3147,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>1.4390046296296297E-2</v>
+        <v>1.435300925925926E-2</v>
       </c>
       <c r="B126" t="s">
         <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E126">
         <v>9</v>
@@ -3111,16 +3164,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>1.4407407407407409E-2</v>
+        <v>1.4390046296296297E-2</v>
       </c>
       <c r="B127" t="s">
         <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>9</v>
@@ -3128,16 +3181,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>1.4434027777777777E-2</v>
+        <v>1.4407407407407409E-2</v>
       </c>
       <c r="B128" t="s">
         <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E128">
         <v>9</v>
@@ -3145,16 +3198,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>1.4452546296296297E-2</v>
+        <v>1.4434027777777777E-2</v>
       </c>
       <c r="B129" t="s">
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D129">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>9</v>
@@ -3162,16 +3215,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>1.4458333333333335E-2</v>
+        <v>1.4452546296296297E-2</v>
       </c>
       <c r="B130" t="s">
         <v>25</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E130">
         <v>9</v>
@@ -3179,16 +3232,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>1.4556712962962964E-2</v>
+        <v>1.4458333333333335E-2</v>
       </c>
       <c r="B131" t="s">
         <v>25</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>9</v>
@@ -3196,16 +3249,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>1.4571759259259258E-2</v>
+        <v>1.4556712962962964E-2</v>
       </c>
       <c r="B132" t="s">
         <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -3213,16 +3266,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>1.4578703703703703E-2</v>
+        <v>1.4571759259259258E-2</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E133">
         <v>9</v>
@@ -3230,16 +3283,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>1.465162037037037E-2</v>
+        <v>1.4578703703703703E-2</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>9</v>
@@ -3247,16 +3300,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>1.4663194444444444E-2</v>
+        <v>1.465162037037037E-2</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E135">
         <v>9</v>
@@ -3264,16 +3317,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>1.4696759259259258E-2</v>
+        <v>1.4663194444444444E-2</v>
       </c>
       <c r="B136" t="s">
         <v>25</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E136">
         <v>9</v>
@@ -3281,16 +3334,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>1.4708333333333332E-2</v>
+        <v>1.4696759259259258E-2</v>
       </c>
       <c r="B137" t="s">
         <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <v>9</v>
@@ -3298,16 +3351,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>1.4737268518518519E-2</v>
+        <v>1.4708333333333332E-2</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>9</v>
@@ -3315,16 +3368,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>1.4748842592592593E-2</v>
+        <v>1.4737268518518519E-2</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E139">
         <v>9</v>
@@ -3332,16 +3385,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>1.4756944444444446E-2</v>
+        <v>1.4748842592592593E-2</v>
       </c>
       <c r="B140" t="s">
         <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>9</v>
@@ -3349,16 +3402,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>1.4789351851851852E-2</v>
+        <v>1.4756944444444446E-2</v>
       </c>
       <c r="B141" t="s">
         <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>9</v>
@@ -3366,16 +3419,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>1.4797453703703703E-2</v>
+        <v>1.4789351851851852E-2</v>
       </c>
       <c r="B142" t="s">
         <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -3383,16 +3436,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>1.480324074074074E-2</v>
+        <v>1.4797453703703703E-2</v>
       </c>
       <c r="B143" t="s">
         <v>25</v>
       </c>
       <c r="C143" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E143">
         <v>9</v>
@@ -3400,16 +3453,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>1.4809027777777777E-2</v>
+        <v>1.480324074074074E-2</v>
       </c>
       <c r="B144" t="s">
         <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E144">
         <v>9</v>
@@ -3417,16 +3470,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>1.4825231481481481E-2</v>
+        <v>1.4809027777777777E-2</v>
       </c>
       <c r="B145" t="s">
         <v>25</v>
       </c>
       <c r="C145" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E145">
         <v>9</v>
@@ -3434,16 +3487,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>1.4854166666666667E-2</v>
+        <v>1.4825231481481481E-2</v>
       </c>
       <c r="B146" t="s">
         <v>25</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E146">
         <v>9</v>
@@ -3451,16 +3504,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>1.4858796296296299E-2</v>
+        <v>1.4854166666666667E-2</v>
       </c>
       <c r="B147" t="s">
         <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>9</v>
@@ -3468,16 +3521,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>1.486111111111111E-2</v>
+        <v>1.4858796296296299E-2</v>
       </c>
       <c r="B148" t="s">
         <v>25</v>
       </c>
       <c r="C148" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E148">
         <v>9</v>
@@ -3485,16 +3538,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>1.4870370370370372E-2</v>
+        <v>1.486111111111111E-2</v>
       </c>
       <c r="B149" t="s">
         <v>25</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E149">
         <v>9</v>
@@ -3502,16 +3555,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>1.4876157407407407E-2</v>
+        <v>1.4870370370370372E-2</v>
       </c>
       <c r="B150" t="s">
         <v>25</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E150">
         <v>9</v>
@@ -3519,16 +3572,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>1.4878472222222223E-2</v>
+        <v>1.4876157407407407E-2</v>
       </c>
       <c r="B151" t="s">
         <v>25</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151">
         <v>9</v>
@@ -3536,16 +3589,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>1.4958333333333332E-2</v>
+        <v>1.4878472222222223E-2</v>
       </c>
       <c r="B152" t="s">
         <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>9</v>
@@ -3553,16 +3606,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>1.498611111111111E-2</v>
+        <v>1.4958333333333332E-2</v>
       </c>
       <c r="B153" t="s">
         <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
         <v>9</v>
@@ -3570,16 +3623,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>1.5026620370370369E-2</v>
+        <v>1.498611111111111E-2</v>
       </c>
       <c r="B154" t="s">
         <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D154">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>9</v>
@@ -3587,16 +3640,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>1.5038194444444444E-2</v>
+        <v>1.5026620370370369E-2</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E155">
         <v>9</v>
@@ -3604,7 +3657,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>1.5042824074074075E-2</v>
+        <v>1.5038194444444444E-2</v>
       </c>
       <c r="B156" t="s">
         <v>25</v>
@@ -3621,10 +3674,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>1.5221064814814814E-2</v>
+        <v>1.5042824074074075E-2</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -3633,21 +3686,21 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>1.5225694444444444E-2</v>
+        <v>1.5221064814814814E-2</v>
       </c>
       <c r="B158" t="s">
         <v>26</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D158">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>10</v>
@@ -3655,16 +3708,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>1.5234953703703704E-2</v>
+        <v>1.5225694444444444E-2</v>
       </c>
       <c r="B159" t="s">
         <v>26</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -3672,16 +3725,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>1.5246527777777776E-2</v>
+        <v>1.5234953703703704E-2</v>
       </c>
       <c r="B160" t="s">
         <v>26</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>10</v>
@@ -3689,16 +3742,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>1.5248842592592592E-2</v>
+        <v>1.5246527777777776E-2</v>
       </c>
       <c r="B161" t="s">
         <v>26</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>10</v>
@@ -3706,16 +3759,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>1.5315972222222222E-2</v>
+        <v>1.5248842592592592E-2</v>
       </c>
       <c r="B162" t="s">
         <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D162">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -3723,16 +3776,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>1.5375E-2</v>
+        <v>1.5315972222222222E-2</v>
       </c>
       <c r="B163" t="s">
         <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -3740,16 +3793,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>1.5395833333333336E-2</v>
+        <v>1.5375E-2</v>
       </c>
       <c r="B164" t="s">
         <v>26</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
         <v>10</v>
@@ -3757,16 +3810,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>1.5402777777777777E-2</v>
+        <v>1.5395833333333336E-2</v>
       </c>
       <c r="B165" t="s">
         <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
         <v>10</v>
@@ -3774,16 +3827,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>1.5416666666666667E-2</v>
+        <v>1.5402777777777777E-2</v>
       </c>
       <c r="B166" t="s">
         <v>26</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>10</v>
@@ -3791,16 +3844,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>1.5431712962962965E-2</v>
+        <v>1.5416666666666667E-2</v>
       </c>
       <c r="B167" t="s">
         <v>26</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D167">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>10</v>
@@ -3808,16 +3861,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>1.54375E-2</v>
+        <v>1.5431712962962965E-2</v>
       </c>
       <c r="B168" t="s">
         <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D168">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E168">
         <v>10</v>
@@ -3825,16 +3878,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>1.5460648148148147E-2</v>
+        <v>1.54375E-2</v>
       </c>
       <c r="B169" t="s">
         <v>26</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E169">
         <v>10</v>
@@ -3842,16 +3895,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>1.5475694444444445E-2</v>
+        <v>1.5460648148148147E-2</v>
       </c>
       <c r="B170" t="s">
         <v>26</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D170">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <v>10</v>
@@ -3859,16 +3912,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>1.5483796296296296E-2</v>
+        <v>1.5475694444444445E-2</v>
       </c>
       <c r="B171" t="s">
         <v>26</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E171">
         <v>10</v>
@@ -3876,16 +3929,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>1.5498842592592594E-2</v>
+        <v>1.5483796296296296E-2</v>
       </c>
       <c r="B172" t="s">
         <v>26</v>
       </c>
       <c r="C172" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -3893,16 +3946,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>1.5502314814814816E-2</v>
+        <v>1.5498842592592594E-2</v>
       </c>
       <c r="B173" t="s">
         <v>26</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="D173">
+        <v>10</v>
       </c>
       <c r="E173">
         <v>10</v>
@@ -3910,16 +3963,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>1.551388888888889E-2</v>
+        <v>1.5502314814814816E-2</v>
       </c>
       <c r="B174" t="s">
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D174" s="2">
+        <v>30</v>
       </c>
       <c r="E174">
         <v>10</v>
@@ -3927,16 +3980,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>1.5545138888888891E-2</v>
+        <v>1.551388888888889E-2</v>
       </c>
       <c r="B175" t="s">
         <v>26</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <v>10</v>
@@ -3944,16 +3997,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>1.5555555555555553E-2</v>
+        <v>1.5545138888888891E-2</v>
       </c>
       <c r="B176" t="s">
         <v>26</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E176">
         <v>10</v>
@@ -3961,16 +4014,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>1.556712962962963E-2</v>
+        <v>1.5555555555555553E-2</v>
       </c>
       <c r="B177" t="s">
         <v>26</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D177">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <v>10</v>
@@ -3978,16 +4031,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>1.5914351851851853E-2</v>
+        <v>1.556712962962963E-2</v>
       </c>
       <c r="B178" t="s">
         <v>26</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E178">
         <v>10</v>
@@ -3995,7 +4048,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>1.5915509259259258E-2</v>
+        <v>1.5914351851851853E-2</v>
       </c>
       <c r="B179" t="s">
         <v>26</v>
@@ -4015,7 +4068,7 @@
         <v>1.5915509259259258E-2</v>
       </c>
       <c r="B180" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C180" t="s">
         <v>10</v>
@@ -4024,21 +4077,21 @@
         <v>9</v>
       </c>
       <c r="E180">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>1.592013888888889E-2</v>
+        <v>1.5915509259259258E-2</v>
       </c>
       <c r="B181" t="s">
         <v>27</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E181">
         <v>11</v>
@@ -4046,16 +4099,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>1.5923611111111111E-2</v>
+        <v>1.592013888888889E-2</v>
       </c>
       <c r="B182" t="s">
         <v>27</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D182">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>11</v>
@@ -4063,16 +4116,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>1.5927083333333331E-2</v>
+        <v>1.5923611111111111E-2</v>
       </c>
       <c r="B183" t="s">
         <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E183">
         <v>11</v>
@@ -4080,16 +4133,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>1.5938657407407408E-2</v>
+        <v>1.5927083333333331E-2</v>
       </c>
       <c r="B184" t="s">
         <v>27</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184">
         <v>11</v>
@@ -4097,16 +4150,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>1.5973379629629629E-2</v>
+        <v>1.5938657407407408E-2</v>
       </c>
       <c r="B185" t="s">
         <v>27</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D185">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <v>11</v>
@@ -4114,16 +4167,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>1.5979166666666666E-2</v>
+        <v>1.5973379629629629E-2</v>
       </c>
       <c r="B186" t="s">
         <v>27</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E186">
         <v>11</v>
@@ -4131,16 +4184,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>1.6207175925925927E-2</v>
+        <v>1.5979166666666666E-2</v>
       </c>
       <c r="B187" t="s">
         <v>27</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <v>11</v>
@@ -4148,16 +4201,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>1.6217592592592592E-2</v>
+        <v>1.6207175925925927E-2</v>
       </c>
       <c r="B188" t="s">
         <v>27</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E188">
         <v>11</v>
@@ -4165,7 +4218,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>1.6609953703703703E-2</v>
+        <v>1.6217592592592592E-2</v>
       </c>
       <c r="B189" t="s">
         <v>27</v>
@@ -4182,10 +4235,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>1.7719907407407406E-2</v>
+        <v>1.6609953703703703E-2</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -4194,21 +4247,21 @@
         <v>1</v>
       </c>
       <c r="E190">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>1.7802083333333333E-2</v>
+        <v>1.7719907407407406E-2</v>
       </c>
       <c r="B191" t="s">
         <v>28</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>12</v>
@@ -4216,16 +4269,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>1.7876157407407407E-2</v>
+        <v>1.7802083333333333E-2</v>
       </c>
       <c r="B192" t="s">
         <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E192">
         <v>12</v>
@@ -4233,16 +4286,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>1.8197916666666664E-2</v>
+        <v>1.7876157407407407E-2</v>
       </c>
       <c r="B193" t="s">
         <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <v>12</v>
@@ -4250,16 +4303,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>1.8224537037037036E-2</v>
+        <v>1.8197916666666664E-2</v>
       </c>
       <c r="B194" t="s">
         <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E194">
         <v>12</v>
@@ -4267,16 +4320,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>1.822800925925926E-2</v>
+        <v>1.8224537037037036E-2</v>
       </c>
       <c r="B195" t="s">
         <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E195">
         <v>12</v>
@@ -4284,16 +4337,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>1.8233796296296297E-2</v>
+        <v>1.822800925925926E-2</v>
       </c>
       <c r="B196" t="s">
         <v>28</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E196">
         <v>12</v>
@@ -4301,16 +4354,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>1.8255787037037039E-2</v>
+        <v>1.8233796296296297E-2</v>
       </c>
       <c r="B197" t="s">
         <v>28</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>12</v>
@@ -4318,16 +4371,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>1.826273148148148E-2</v>
+        <v>1.8255787037037039E-2</v>
       </c>
       <c r="B198" t="s">
         <v>28</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>12</v>
@@ -4335,16 +4388,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>1.8303240740740741E-2</v>
+        <v>1.826273148148148E-2</v>
       </c>
       <c r="B199" t="s">
         <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>12</v>
@@ -4352,16 +4405,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>1.8305555555555554E-2</v>
+        <v>1.8303240740740741E-2</v>
       </c>
       <c r="B200" t="s">
         <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E200">
         <v>12</v>
@@ -4369,16 +4422,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>1.835300925925926E-2</v>
+        <v>1.8305555555555554E-2</v>
       </c>
       <c r="B201" t="s">
         <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201">
         <v>12</v>
@@ -4386,16 +4439,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>1.8355324074074073E-2</v>
+        <v>1.835300925925926E-2</v>
       </c>
       <c r="B202" t="s">
         <v>28</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E202">
         <v>12</v>
@@ -4403,16 +4456,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>1.8358796296296297E-2</v>
+        <v>1.8355324074074073E-2</v>
       </c>
       <c r="B203" t="s">
         <v>28</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
       </c>
       <c r="E203">
         <v>12</v>
@@ -4420,16 +4473,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>1.8363425925925925E-2</v>
+        <v>1.8358796296296297E-2</v>
       </c>
       <c r="B204" t="s">
         <v>28</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
-      </c>
-      <c r="D204">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D204" s="2">
+        <v>30</v>
       </c>
       <c r="E204">
         <v>12</v>
@@ -4437,16 +4490,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>1.8394675925925925E-2</v>
+        <v>1.8363425925925925E-2</v>
       </c>
       <c r="B205" t="s">
         <v>28</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205">
         <v>12</v>
@@ -4454,7 +4507,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>1.8414351851851852E-2</v>
+        <v>1.8394675925925925E-2</v>
       </c>
       <c r="B206" t="s">
         <v>28</v>
@@ -4471,10 +4524,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>1.886689814814815E-2</v>
+        <v>1.8414351851851852E-2</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
@@ -4483,21 +4536,21 @@
         <v>2</v>
       </c>
       <c r="E207">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>1.8884259259259257E-2</v>
+        <v>1.886689814814815E-2</v>
       </c>
       <c r="B208" t="s">
         <v>29</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>13</v>
@@ -4505,16 +4558,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>1.8894675925925926E-2</v>
+        <v>1.8884259259259257E-2</v>
       </c>
       <c r="B209" t="s">
         <v>29</v>
       </c>
       <c r="C209" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E209">
         <v>13</v>
@@ -4522,16 +4575,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>1.8920138888888889E-2</v>
+        <v>1.8894675925925926E-2</v>
       </c>
       <c r="B210" t="s">
         <v>29</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E210">
         <v>13</v>
@@ -4539,16 +4592,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <v>1.8925925925925926E-2</v>
+        <v>1.8920138888888889E-2</v>
       </c>
       <c r="B211" t="s">
         <v>29</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E211">
         <v>13</v>
@@ -4556,16 +4609,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <v>1.894097222222222E-2</v>
+        <v>1.8925925925925926E-2</v>
       </c>
       <c r="B212" t="s">
         <v>29</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E212">
         <v>13</v>
@@ -4573,16 +4626,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>1.8944444444444444E-2</v>
+        <v>1.894097222222222E-2</v>
       </c>
       <c r="B213" t="s">
         <v>29</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E213">
         <v>13</v>
@@ -4590,16 +4643,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>1.8947916666666665E-2</v>
+        <v>1.8944444444444444E-2</v>
       </c>
       <c r="B214" t="s">
         <v>29</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E214">
         <v>13</v>
@@ -4607,16 +4660,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>1.9112268518518518E-2</v>
+        <v>1.8947916666666665E-2</v>
       </c>
       <c r="B215" t="s">
         <v>29</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215">
         <v>13</v>
@@ -4624,16 +4677,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>1.9230324074074073E-2</v>
+        <v>1.9112268518518518E-2</v>
       </c>
       <c r="B216" t="s">
         <v>29</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>13</v>
@@ -4641,16 +4694,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>1.9244212962962963E-2</v>
+        <v>1.9230324074074073E-2</v>
       </c>
       <c r="B217" t="s">
         <v>29</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217">
         <v>13</v>
@@ -4658,16 +4711,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>1.9265046296296297E-2</v>
+        <v>1.9244212962962963E-2</v>
       </c>
       <c r="B218" t="s">
         <v>29</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218">
         <v>13</v>
@@ -4675,16 +4728,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>1.9461805555555555E-2</v>
+        <v>1.9265046296296297E-2</v>
       </c>
       <c r="B219" t="s">
         <v>29</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E219">
         <v>13</v>
@@ -4692,16 +4745,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>1.9498842592592592E-2</v>
+        <v>1.9461805555555555E-2</v>
       </c>
       <c r="B220" t="s">
         <v>29</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D220">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>13</v>
@@ -4709,16 +4762,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <v>1.9525462962962963E-2</v>
+        <v>1.9498842592592592E-2</v>
       </c>
       <c r="B221" t="s">
         <v>29</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E221">
         <v>13</v>
@@ -4726,16 +4779,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>1.9534722222222221E-2</v>
+        <v>1.9525462962962963E-2</v>
       </c>
       <c r="B222" t="s">
         <v>29</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D222">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E222">
         <v>13</v>
@@ -4743,7 +4796,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <v>1.9561342592592592E-2</v>
+        <v>1.9534722222222221E-2</v>
       </c>
       <c r="B223" t="s">
         <v>29</v>
@@ -4759,10 +4812,1010 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D224" s="2"/>
+      <c r="A224" s="1">
+        <v>1.9561342592592592E-2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224">
+        <v>10</v>
+      </c>
+      <c r="E224">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" s="3">
+        <v>1.0141203703703704E-2</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="5">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" s="3">
+        <v>1.0275462962962962E-2</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="5">
+        <v>14</v>
+      </c>
+      <c r="E226">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" s="3">
+        <v>1.0447916666666664E-2</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="5">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" s="3">
+        <v>1.050925925925926E-2</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="6">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" s="3">
+        <v>1.0552083333333333E-2</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="5">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" s="3">
+        <v>1.0565972222222221E-2</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230" s="5">
+        <v>14</v>
+      </c>
+      <c r="E230">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" s="3">
+        <v>1.0568287037037037E-2</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="5">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="3">
+        <v>1.0587962962962962E-2</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" s="5">
+        <v>14</v>
+      </c>
+      <c r="E232">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" s="3">
+        <v>1.0591435185185185E-2</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="5">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" s="3">
+        <v>1.0642361111111111E-2</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="5">
+        <v>10</v>
+      </c>
+      <c r="E234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" s="3">
+        <v>1.0648148148148146E-2</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="5">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" s="3">
+        <v>1.0688657407407405E-2</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="5">
+        <v>10</v>
+      </c>
+      <c r="E236">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" s="3">
+        <v>1.0697916666666668E-2</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="5">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" s="3">
+        <v>1.0709490740740742E-2</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" s="5">
+        <v>14</v>
+      </c>
+      <c r="E238">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" s="3">
+        <v>1.0835648148148148E-2</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" s="5">
+        <v>14</v>
+      </c>
+      <c r="E239">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" s="3">
+        <v>3.2152777777777774E-3</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="5">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" s="3">
+        <v>3.312499999999999E-3</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="6">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="3">
+        <v>3.3634259259259255E-3</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="5">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" s="3">
+        <v>3.3877314814814807E-3</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" s="5">
+        <v>7</v>
+      </c>
+      <c r="E243">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="3">
+        <v>3.3993055555555552E-3</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" s="5">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" s="3">
+        <v>3.4143518518518511E-3</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="6">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="3">
+        <v>3.4456018518518512E-3</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" s="5">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="3">
+        <v>3.5902777777777777E-3</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="6">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" s="3">
+        <v>3.5983796296296298E-3</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="5">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" s="3">
+        <v>3.6296296296296298E-3</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="6">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="3">
+        <v>3.6354166666666666E-3</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="5">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="3">
+        <v>3.7511574074074066E-3</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="6">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="3">
+        <v>3.7858796296296299E-3</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="5">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="3">
+        <v>3.8495370370370363E-3</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253" s="5">
+        <v>7</v>
+      </c>
+      <c r="E253">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="3">
+        <v>3.8611111111111116E-3</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" s="5">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" s="3">
+        <v>3.9027777777777771E-3</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="6">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" s="3">
+        <v>3.9097222222222224E-3</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="6">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="3">
+        <v>1.9967592592592592E-2</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="6">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" s="3">
+        <v>1.9987268518518519E-2</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" s="5">
+        <v>8</v>
+      </c>
+      <c r="E258">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="3">
+        <v>1.9989583333333335E-2</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="6">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="3">
+        <v>2.0016203703703703E-2</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D260" s="5">
+        <v>8</v>
+      </c>
+      <c r="E260">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="3">
+        <v>2.0071759259259258E-2</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="5">
+        <v>30</v>
+      </c>
+      <c r="E261">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="3">
+        <v>2.0077546296296295E-2</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262" s="5">
+        <v>8</v>
+      </c>
+      <c r="E262">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="3">
+        <v>2.0091435185185184E-2</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="6">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="3">
+        <v>2.0106481481481482E-2</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" s="5">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="3">
+        <v>2.0114583333333335E-2</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="6">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="3">
+        <v>2.0146990740740743E-2</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" s="5">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="3">
+        <v>2.0157407407407409E-2</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" s="5">
+        <v>7</v>
+      </c>
+      <c r="E267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="3">
+        <v>2.0199074074074074E-2</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D268" s="5">
+        <v>8</v>
+      </c>
+      <c r="E268">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="3">
+        <v>2.0208333333333335E-2</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="6">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="3">
+        <v>2.0228009259259258E-2</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D270" s="5">
+        <v>8</v>
+      </c>
+      <c r="E270">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="3">
+        <v>2.0239583333333335E-2</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="6">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="3">
+        <v>2.0247685185185185E-2</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" s="5">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="3">
+        <v>2.0270833333333335E-2</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="6">
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="3">
+        <v>2.0380787037037038E-2</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" s="5">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="3">
+        <v>2.0421296296296295E-2</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="6">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" s="3">
+        <v>2.0484953703703703E-2</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" s="5">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" s="3">
+        <v>2.049652777777778E-2</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="6">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="3">
+        <v>2.0583333333333335E-2</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="5">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="3">
+        <v>2.0584490740740743E-2</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" s="5">
+        <v>10</v>
+      </c>
+      <c r="E279">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="3">
+        <v>2.0593750000000001E-2</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="5">
+        <v>30</v>
+      </c>
+      <c r="E280">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="3">
+        <v>2.0620370370370369E-2</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="6">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="3">
+        <v>2.0662037037037038E-2</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="6">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D223" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D224" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
